--- a/data/fiona_all.xlsx
+++ b/data/fiona_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{61CBC9E3-2609-E846-AACA-81B343112A34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ED0E12-9F71-D343-B815-8FB32046B695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15420" xr2:uid="{F9AD2A1A-C27B-BB4F-9826-ADAF31727007}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4658B3B-DC57-6045-89AB-853788F033ED}">
-  <dimension ref="A1:G254"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F265" sqref="F265"/>
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
+      <selection activeCell="A265" sqref="A265"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6256,6 +6256,236 @@
         <v>6</v>
       </c>
     </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>254</v>
+      </c>
+      <c r="B255" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C255">
+        <v>5</v>
+      </c>
+      <c r="D255">
+        <v>5</v>
+      </c>
+      <c r="E255">
+        <v>0</v>
+      </c>
+      <c r="F255">
+        <v>0</v>
+      </c>
+      <c r="G255">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>255</v>
+      </c>
+      <c r="B256" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C256">
+        <v>4</v>
+      </c>
+      <c r="D256">
+        <v>3</v>
+      </c>
+      <c r="E256">
+        <v>0</v>
+      </c>
+      <c r="F256">
+        <v>1</v>
+      </c>
+      <c r="G256">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>256</v>
+      </c>
+      <c r="B257" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C257">
+        <v>4</v>
+      </c>
+      <c r="D257">
+        <v>4</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+      <c r="G257">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>257</v>
+      </c>
+      <c r="B258" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C258">
+        <v>5</v>
+      </c>
+      <c r="D258">
+        <v>3</v>
+      </c>
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>2</v>
+      </c>
+      <c r="G258">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>258</v>
+      </c>
+      <c r="B259" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C259">
+        <v>5</v>
+      </c>
+      <c r="D259">
+        <v>5</v>
+      </c>
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>0</v>
+      </c>
+      <c r="G259">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>259</v>
+      </c>
+      <c r="B260" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C260">
+        <v>5</v>
+      </c>
+      <c r="D260">
+        <v>5</v>
+      </c>
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>0</v>
+      </c>
+      <c r="G260">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>260</v>
+      </c>
+      <c r="B261" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C261">
+        <v>6</v>
+      </c>
+      <c r="D261">
+        <v>4</v>
+      </c>
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>2</v>
+      </c>
+      <c r="G261">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>261</v>
+      </c>
+      <c r="B262" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C262">
+        <v>6</v>
+      </c>
+      <c r="D262">
+        <v>4</v>
+      </c>
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>2</v>
+      </c>
+      <c r="G262">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>262</v>
+      </c>
+      <c r="B263" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C263">
+        <v>5</v>
+      </c>
+      <c r="D263">
+        <v>5</v>
+      </c>
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>0</v>
+      </c>
+      <c r="G263">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>263</v>
+      </c>
+      <c r="B264" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C264">
+        <v>5</v>
+      </c>
+      <c r="D264">
+        <v>4</v>
+      </c>
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>1</v>
+      </c>
+      <c r="G264">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_all.xlsx
+++ b/data/fiona_all.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00ED0E12-9F71-D343-B815-8FB32046B695}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F76E4D3-4240-9846-B202-4F0A653F9FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="1460" windowWidth="27240" windowHeight="15420" xr2:uid="{F9AD2A1A-C27B-BB4F-9826-ADAF31727007}"/>
+    <workbookView xWindow="1180" yWindow="1240" windowWidth="27240" windowHeight="15420" xr2:uid="{F9AD2A1A-C27B-BB4F-9826-ADAF31727007}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4658B3B-DC57-6045-89AB-853788F033ED}">
-  <dimension ref="A1:G264"/>
+  <dimension ref="A1:G279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="A265" sqref="A265"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="H279" sqref="H279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6486,6 +6486,351 @@
         <v>6</v>
       </c>
     </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>263</v>
+      </c>
+      <c r="B265" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C265">
+        <v>6</v>
+      </c>
+      <c r="D265">
+        <v>5</v>
+      </c>
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>1</v>
+      </c>
+      <c r="G265">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>264</v>
+      </c>
+      <c r="B266" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C266">
+        <v>7</v>
+      </c>
+      <c r="D266">
+        <v>6</v>
+      </c>
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>1</v>
+      </c>
+      <c r="G266">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>265</v>
+      </c>
+      <c r="B267" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C267">
+        <v>5</v>
+      </c>
+      <c r="D267">
+        <v>5</v>
+      </c>
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267">
+        <v>0</v>
+      </c>
+      <c r="G267">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>266</v>
+      </c>
+      <c r="B268" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C268">
+        <v>5</v>
+      </c>
+      <c r="D268">
+        <v>5</v>
+      </c>
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268">
+        <v>0</v>
+      </c>
+      <c r="G268">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>267</v>
+      </c>
+      <c r="B269" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C269">
+        <v>5</v>
+      </c>
+      <c r="D269">
+        <v>4</v>
+      </c>
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269">
+        <v>1</v>
+      </c>
+      <c r="G269">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>268</v>
+      </c>
+      <c r="B270" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C270">
+        <v>5</v>
+      </c>
+      <c r="D270">
+        <v>5</v>
+      </c>
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270">
+        <v>0</v>
+      </c>
+      <c r="G270">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>269</v>
+      </c>
+      <c r="B271" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C271">
+        <v>6</v>
+      </c>
+      <c r="D271">
+        <v>4</v>
+      </c>
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271">
+        <v>2</v>
+      </c>
+      <c r="G271">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>270</v>
+      </c>
+      <c r="B272" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C272">
+        <v>5</v>
+      </c>
+      <c r="D272">
+        <v>5</v>
+      </c>
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272">
+        <v>0</v>
+      </c>
+      <c r="G272">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>271</v>
+      </c>
+      <c r="B273" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C273">
+        <v>5</v>
+      </c>
+      <c r="D273">
+        <v>4</v>
+      </c>
+      <c r="E273">
+        <v>0</v>
+      </c>
+      <c r="F273">
+        <v>1</v>
+      </c>
+      <c r="G273">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>272</v>
+      </c>
+      <c r="B274" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C274">
+        <v>5</v>
+      </c>
+      <c r="D274">
+        <v>4</v>
+      </c>
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>0</v>
+      </c>
+      <c r="G274">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>273</v>
+      </c>
+      <c r="B275" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C275">
+        <v>6</v>
+      </c>
+      <c r="D275">
+        <v>5</v>
+      </c>
+      <c r="E275">
+        <v>0</v>
+      </c>
+      <c r="F275">
+        <v>1</v>
+      </c>
+      <c r="G275">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>274</v>
+      </c>
+      <c r="B276" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C276">
+        <v>5</v>
+      </c>
+      <c r="D276">
+        <v>5</v>
+      </c>
+      <c r="E276">
+        <v>0</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>275</v>
+      </c>
+      <c r="B277" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C277">
+        <v>5</v>
+      </c>
+      <c r="D277">
+        <v>4</v>
+      </c>
+      <c r="E277">
+        <v>0</v>
+      </c>
+      <c r="F277">
+        <v>1</v>
+      </c>
+      <c r="G277">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>276</v>
+      </c>
+      <c r="B278" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C278">
+        <v>4</v>
+      </c>
+      <c r="D278">
+        <v>4</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>0</v>
+      </c>
+      <c r="G278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>277</v>
+      </c>
+      <c r="B279" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C279">
+        <v>5</v>
+      </c>
+      <c r="D279">
+        <v>4</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>1</v>
+      </c>
+      <c r="G279">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_all.xlsx
+++ b/data/fiona_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F76E4D3-4240-9846-B202-4F0A653F9FC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435D362D-3BA3-7848-8267-8464E2E39312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1240" windowWidth="27240" windowHeight="15420" xr2:uid="{F9AD2A1A-C27B-BB4F-9826-ADAF31727007}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4658B3B-DC57-6045-89AB-853788F033ED}">
-  <dimension ref="A1:G279"/>
+  <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
-      <selection activeCell="H279" sqref="H279"/>
+    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
+      <selection activeCell="H290" sqref="H290"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6831,6 +6831,259 @@
         <v>6</v>
       </c>
     </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>278</v>
+      </c>
+      <c r="B280" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C280">
+        <v>6</v>
+      </c>
+      <c r="D280">
+        <v>5</v>
+      </c>
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>0</v>
+      </c>
+      <c r="G280">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>279</v>
+      </c>
+      <c r="B281" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C281">
+        <v>4</v>
+      </c>
+      <c r="D281">
+        <v>3</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>280</v>
+      </c>
+      <c r="B282" s="1">
+        <v>44153</v>
+      </c>
+      <c r="C282">
+        <v>5</v>
+      </c>
+      <c r="D282">
+        <v>4</v>
+      </c>
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>1</v>
+      </c>
+      <c r="G282">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>281</v>
+      </c>
+      <c r="B283" s="1">
+        <v>44154</v>
+      </c>
+      <c r="C283">
+        <v>5</v>
+      </c>
+      <c r="D283">
+        <v>5</v>
+      </c>
+      <c r="E283">
+        <v>0</v>
+      </c>
+      <c r="F283">
+        <v>0</v>
+      </c>
+      <c r="G283">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>282</v>
+      </c>
+      <c r="B284" s="1">
+        <v>44155</v>
+      </c>
+      <c r="C284">
+        <v>5</v>
+      </c>
+      <c r="D284">
+        <v>5</v>
+      </c>
+      <c r="E284">
+        <v>0</v>
+      </c>
+      <c r="F284">
+        <v>0</v>
+      </c>
+      <c r="G284">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>283</v>
+      </c>
+      <c r="B285" s="1">
+        <v>44156</v>
+      </c>
+      <c r="C285">
+        <v>6</v>
+      </c>
+      <c r="D285">
+        <v>4</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>2</v>
+      </c>
+      <c r="G285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>284</v>
+      </c>
+      <c r="B286" s="1">
+        <v>44157</v>
+      </c>
+      <c r="C286">
+        <v>5</v>
+      </c>
+      <c r="D286">
+        <v>3</v>
+      </c>
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>2</v>
+      </c>
+      <c r="G286">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>285</v>
+      </c>
+      <c r="B287" s="1">
+        <v>44158</v>
+      </c>
+      <c r="C287">
+        <v>7</v>
+      </c>
+      <c r="D287">
+        <v>6</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>1</v>
+      </c>
+      <c r="G287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>286</v>
+      </c>
+      <c r="B288" s="1">
+        <v>44159</v>
+      </c>
+      <c r="C288">
+        <v>6</v>
+      </c>
+      <c r="D288">
+        <v>5</v>
+      </c>
+      <c r="E288">
+        <v>0</v>
+      </c>
+      <c r="F288">
+        <v>1</v>
+      </c>
+      <c r="G288">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>287</v>
+      </c>
+      <c r="B289" s="1">
+        <v>44160</v>
+      </c>
+      <c r="C289">
+        <v>7</v>
+      </c>
+      <c r="D289">
+        <v>5</v>
+      </c>
+      <c r="E289">
+        <v>0</v>
+      </c>
+      <c r="F289">
+        <v>2</v>
+      </c>
+      <c r="G289">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>288</v>
+      </c>
+      <c r="B290" s="1">
+        <v>44161</v>
+      </c>
+      <c r="C290">
+        <v>5</v>
+      </c>
+      <c r="D290">
+        <v>3</v>
+      </c>
+      <c r="E290">
+        <v>0</v>
+      </c>
+      <c r="F290">
+        <v>2</v>
+      </c>
+      <c r="G290">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_all.xlsx
+++ b/data/fiona_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435D362D-3BA3-7848-8267-8464E2E39312}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC581C01-8D3A-5046-B908-698415824324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1240" windowWidth="27240" windowHeight="15420" xr2:uid="{F9AD2A1A-C27B-BB4F-9826-ADAF31727007}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4658B3B-DC57-6045-89AB-853788F033ED}">
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A260" workbookViewId="0">
-      <selection activeCell="H290" sqref="H290"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="H295" sqref="H295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7084,6 +7084,121 @@
         <v>7</v>
       </c>
     </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>289</v>
+      </c>
+      <c r="B291" s="1">
+        <v>44162</v>
+      </c>
+      <c r="C291">
+        <v>5</v>
+      </c>
+      <c r="D291">
+        <v>5</v>
+      </c>
+      <c r="E291">
+        <v>0</v>
+      </c>
+      <c r="F291">
+        <v>0</v>
+      </c>
+      <c r="G291">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>290</v>
+      </c>
+      <c r="B292" s="1">
+        <v>44163</v>
+      </c>
+      <c r="C292">
+        <v>5</v>
+      </c>
+      <c r="D292">
+        <v>3</v>
+      </c>
+      <c r="E292">
+        <v>0</v>
+      </c>
+      <c r="F292">
+        <v>2</v>
+      </c>
+      <c r="G292">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>291</v>
+      </c>
+      <c r="B293" s="1">
+        <v>44164</v>
+      </c>
+      <c r="C293">
+        <v>7</v>
+      </c>
+      <c r="D293">
+        <v>4</v>
+      </c>
+      <c r="E293">
+        <v>1</v>
+      </c>
+      <c r="F293">
+        <v>2</v>
+      </c>
+      <c r="G293">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>292</v>
+      </c>
+      <c r="B294" s="1">
+        <v>44165</v>
+      </c>
+      <c r="C294">
+        <v>8</v>
+      </c>
+      <c r="D294">
+        <v>6</v>
+      </c>
+      <c r="E294">
+        <v>0</v>
+      </c>
+      <c r="F294">
+        <v>2</v>
+      </c>
+      <c r="G294">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>293</v>
+      </c>
+      <c r="B295" s="1">
+        <v>44166</v>
+      </c>
+      <c r="C295">
+        <v>7</v>
+      </c>
+      <c r="D295">
+        <v>3</v>
+      </c>
+      <c r="E295">
+        <v>0</v>
+      </c>
+      <c r="F295">
+        <v>4</v>
+      </c>
+      <c r="G295">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_all.xlsx
+++ b/data/fiona_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC581C01-8D3A-5046-B908-698415824324}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839834BF-2579-3748-963B-718F40E45C8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1240" windowWidth="27240" windowHeight="15420" xr2:uid="{F9AD2A1A-C27B-BB4F-9826-ADAF31727007}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4658B3B-DC57-6045-89AB-853788F033ED}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G314"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="H295" sqref="H295"/>
+    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="H314" sqref="H314"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7199,6 +7199,443 @@
         <v>6</v>
       </c>
     </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>294</v>
+      </c>
+      <c r="B296" s="1">
+        <v>44167</v>
+      </c>
+      <c r="C296">
+        <v>6</v>
+      </c>
+      <c r="D296">
+        <v>3</v>
+      </c>
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>3</v>
+      </c>
+      <c r="G296">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>295</v>
+      </c>
+      <c r="B297" s="1">
+        <v>44168</v>
+      </c>
+      <c r="C297">
+        <v>6</v>
+      </c>
+      <c r="D297">
+        <v>3</v>
+      </c>
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>3</v>
+      </c>
+      <c r="G297">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>296</v>
+      </c>
+      <c r="B298" s="1">
+        <v>44169</v>
+      </c>
+      <c r="C298">
+        <v>6</v>
+      </c>
+      <c r="D298">
+        <v>5</v>
+      </c>
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>1</v>
+      </c>
+      <c r="G298">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>297</v>
+      </c>
+      <c r="B299" s="1">
+        <v>44170</v>
+      </c>
+      <c r="C299">
+        <v>5</v>
+      </c>
+      <c r="D299">
+        <v>4</v>
+      </c>
+      <c r="E299">
+        <v>0</v>
+      </c>
+      <c r="F299">
+        <v>1</v>
+      </c>
+      <c r="G299">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>298</v>
+      </c>
+      <c r="B300" s="1">
+        <v>44171</v>
+      </c>
+      <c r="C300">
+        <v>7</v>
+      </c>
+      <c r="D300">
+        <v>5</v>
+      </c>
+      <c r="E300">
+        <v>1</v>
+      </c>
+      <c r="F300">
+        <v>1</v>
+      </c>
+      <c r="G300">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>299</v>
+      </c>
+      <c r="B301" s="1">
+        <v>44172</v>
+      </c>
+      <c r="C301">
+        <v>7</v>
+      </c>
+      <c r="D301">
+        <v>5</v>
+      </c>
+      <c r="E301">
+        <v>0</v>
+      </c>
+      <c r="F301">
+        <v>2</v>
+      </c>
+      <c r="G301">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>300</v>
+      </c>
+      <c r="B302" s="1">
+        <v>44173</v>
+      </c>
+      <c r="C302">
+        <v>6</v>
+      </c>
+      <c r="D302">
+        <v>4</v>
+      </c>
+      <c r="E302">
+        <v>0</v>
+      </c>
+      <c r="F302">
+        <v>2</v>
+      </c>
+      <c r="G302">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>301</v>
+      </c>
+      <c r="B303" s="1">
+        <v>44174</v>
+      </c>
+      <c r="C303">
+        <v>6</v>
+      </c>
+      <c r="D303">
+        <v>2</v>
+      </c>
+      <c r="E303">
+        <v>0</v>
+      </c>
+      <c r="F303">
+        <v>4</v>
+      </c>
+      <c r="G303">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>302</v>
+      </c>
+      <c r="B304" s="1">
+        <v>44175</v>
+      </c>
+      <c r="C304">
+        <v>6</v>
+      </c>
+      <c r="D304">
+        <v>3</v>
+      </c>
+      <c r="E304">
+        <v>0</v>
+      </c>
+      <c r="F304">
+        <v>3</v>
+      </c>
+      <c r="G304">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>303</v>
+      </c>
+      <c r="B305" s="1">
+        <v>44176</v>
+      </c>
+      <c r="C305">
+        <v>5</v>
+      </c>
+      <c r="D305">
+        <v>4</v>
+      </c>
+      <c r="E305">
+        <v>0</v>
+      </c>
+      <c r="F305">
+        <v>1</v>
+      </c>
+      <c r="G305">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>304</v>
+      </c>
+      <c r="B306" s="1">
+        <v>44177</v>
+      </c>
+      <c r="C306">
+        <v>7</v>
+      </c>
+      <c r="D306">
+        <v>3</v>
+      </c>
+      <c r="E306">
+        <v>0</v>
+      </c>
+      <c r="F306">
+        <v>4</v>
+      </c>
+      <c r="G306">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>305</v>
+      </c>
+      <c r="B307" s="1">
+        <v>44178</v>
+      </c>
+      <c r="C307">
+        <v>6</v>
+      </c>
+      <c r="D307">
+        <v>4</v>
+      </c>
+      <c r="E307">
+        <v>0</v>
+      </c>
+      <c r="F307">
+        <v>2</v>
+      </c>
+      <c r="G307">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>306</v>
+      </c>
+      <c r="B308" s="1">
+        <v>44179</v>
+      </c>
+      <c r="C308">
+        <v>5</v>
+      </c>
+      <c r="D308">
+        <v>4</v>
+      </c>
+      <c r="E308">
+        <v>0</v>
+      </c>
+      <c r="F308">
+        <v>1</v>
+      </c>
+      <c r="G308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>307</v>
+      </c>
+      <c r="B309" s="1">
+        <v>44180</v>
+      </c>
+      <c r="C309">
+        <v>5</v>
+      </c>
+      <c r="D309">
+        <v>4</v>
+      </c>
+      <c r="E309">
+        <v>0</v>
+      </c>
+      <c r="F309">
+        <v>1</v>
+      </c>
+      <c r="G309">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>308</v>
+      </c>
+      <c r="B310" s="1">
+        <v>44181</v>
+      </c>
+      <c r="C310">
+        <v>6</v>
+      </c>
+      <c r="D310">
+        <v>3</v>
+      </c>
+      <c r="E310">
+        <v>0</v>
+      </c>
+      <c r="F310">
+        <v>3</v>
+      </c>
+      <c r="G310">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>309</v>
+      </c>
+      <c r="B311" s="1">
+        <v>44182</v>
+      </c>
+      <c r="C311">
+        <v>6</v>
+      </c>
+      <c r="D311">
+        <v>3</v>
+      </c>
+      <c r="E311">
+        <v>1</v>
+      </c>
+      <c r="F311">
+        <v>2</v>
+      </c>
+      <c r="G311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>310</v>
+      </c>
+      <c r="B312" s="1">
+        <v>44183</v>
+      </c>
+      <c r="C312">
+        <v>6</v>
+      </c>
+      <c r="D312">
+        <v>4</v>
+      </c>
+      <c r="E312">
+        <v>1</v>
+      </c>
+      <c r="F312">
+        <v>1</v>
+      </c>
+      <c r="G312">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>311</v>
+      </c>
+      <c r="B313" s="1">
+        <v>44184</v>
+      </c>
+      <c r="C313">
+        <v>5</v>
+      </c>
+      <c r="D313">
+        <v>4</v>
+      </c>
+      <c r="E313">
+        <v>0</v>
+      </c>
+      <c r="F313">
+        <v>1</v>
+      </c>
+      <c r="G313">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>312</v>
+      </c>
+      <c r="B314" s="1">
+        <v>44185</v>
+      </c>
+      <c r="C314">
+        <v>6</v>
+      </c>
+      <c r="D314">
+        <v>5</v>
+      </c>
+      <c r="E314">
+        <v>0</v>
+      </c>
+      <c r="F314">
+        <v>1</v>
+      </c>
+      <c r="G314">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/fiona_all.xlsx
+++ b/data/fiona_all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{839834BF-2579-3748-963B-718F40E45C8B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE0EC78-DE2C-8B4F-8F92-BA2EC744E3E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1240" windowWidth="27240" windowHeight="15420" xr2:uid="{F9AD2A1A-C27B-BB4F-9826-ADAF31727007}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4658B3B-DC57-6045-89AB-853788F033ED}">
-  <dimension ref="A1:G314"/>
+  <dimension ref="A1:G330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A293" workbookViewId="0">
-      <selection activeCell="H314" sqref="H314"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="H330" sqref="H330"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7633,6 +7633,374 @@
         <v>1</v>
       </c>
       <c r="G314">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>313</v>
+      </c>
+      <c r="B315" s="1">
+        <v>44186</v>
+      </c>
+      <c r="C315">
+        <v>6</v>
+      </c>
+      <c r="D315">
+        <v>6</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>0</v>
+      </c>
+      <c r="G315">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>314</v>
+      </c>
+      <c r="B316" s="1">
+        <v>44187</v>
+      </c>
+      <c r="C316">
+        <v>6</v>
+      </c>
+      <c r="D316">
+        <v>5</v>
+      </c>
+      <c r="E316">
+        <v>0</v>
+      </c>
+      <c r="F316">
+        <v>1</v>
+      </c>
+      <c r="G316">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>315</v>
+      </c>
+      <c r="B317" s="1">
+        <v>44188</v>
+      </c>
+      <c r="C317">
+        <v>5</v>
+      </c>
+      <c r="D317">
+        <v>3</v>
+      </c>
+      <c r="E317">
+        <v>0</v>
+      </c>
+      <c r="F317">
+        <v>2</v>
+      </c>
+      <c r="G317">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>316</v>
+      </c>
+      <c r="B318" s="1">
+        <v>44189</v>
+      </c>
+      <c r="C318">
+        <v>7</v>
+      </c>
+      <c r="D318">
+        <v>3</v>
+      </c>
+      <c r="E318">
+        <v>1</v>
+      </c>
+      <c r="F318">
+        <v>3</v>
+      </c>
+      <c r="G318">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>317</v>
+      </c>
+      <c r="B319" s="1">
+        <v>44190</v>
+      </c>
+      <c r="C319">
+        <v>5</v>
+      </c>
+      <c r="D319">
+        <v>3</v>
+      </c>
+      <c r="E319">
+        <v>0</v>
+      </c>
+      <c r="F319">
+        <v>2</v>
+      </c>
+      <c r="G319">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>318</v>
+      </c>
+      <c r="B320" s="1">
+        <v>44191</v>
+      </c>
+      <c r="C320">
+        <v>6</v>
+      </c>
+      <c r="D320">
+        <v>5</v>
+      </c>
+      <c r="E320">
+        <v>0</v>
+      </c>
+      <c r="F320">
+        <v>1</v>
+      </c>
+      <c r="G320">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>319</v>
+      </c>
+      <c r="B321" s="1">
+        <v>44192</v>
+      </c>
+      <c r="C321">
+        <v>6</v>
+      </c>
+      <c r="D321">
+        <v>4</v>
+      </c>
+      <c r="E321">
+        <v>1</v>
+      </c>
+      <c r="F321">
+        <v>1</v>
+      </c>
+      <c r="G321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>320</v>
+      </c>
+      <c r="B322" s="1">
+        <v>44193</v>
+      </c>
+      <c r="C322">
+        <v>5</v>
+      </c>
+      <c r="D322">
+        <v>4</v>
+      </c>
+      <c r="E322">
+        <v>0</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+      <c r="G322">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>321</v>
+      </c>
+      <c r="B323" s="1">
+        <v>44194</v>
+      </c>
+      <c r="C323">
+        <v>8</v>
+      </c>
+      <c r="D323">
+        <v>5</v>
+      </c>
+      <c r="E323">
+        <v>1</v>
+      </c>
+      <c r="F323">
+        <v>2</v>
+      </c>
+      <c r="G323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>322</v>
+      </c>
+      <c r="B324" s="1">
+        <v>44195</v>
+      </c>
+      <c r="C324">
+        <v>7</v>
+      </c>
+      <c r="D324">
+        <v>5</v>
+      </c>
+      <c r="E324">
+        <v>0</v>
+      </c>
+      <c r="F324">
+        <v>2</v>
+      </c>
+      <c r="G324">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>323</v>
+      </c>
+      <c r="B325" s="1">
+        <v>44196</v>
+      </c>
+      <c r="C325">
+        <v>6</v>
+      </c>
+      <c r="D325">
+        <v>4</v>
+      </c>
+      <c r="E325">
+        <v>0</v>
+      </c>
+      <c r="F325">
+        <v>2</v>
+      </c>
+      <c r="G325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>324</v>
+      </c>
+      <c r="B326" s="1">
+        <v>44197</v>
+      </c>
+      <c r="C326">
+        <v>6</v>
+      </c>
+      <c r="D326">
+        <v>5</v>
+      </c>
+      <c r="E326">
+        <v>0</v>
+      </c>
+      <c r="F326">
+        <v>1</v>
+      </c>
+      <c r="G326">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>325</v>
+      </c>
+      <c r="B327" s="1">
+        <v>44198</v>
+      </c>
+      <c r="C327">
+        <v>5</v>
+      </c>
+      <c r="D327">
+        <v>5</v>
+      </c>
+      <c r="E327">
+        <v>0</v>
+      </c>
+      <c r="F327">
+        <v>0</v>
+      </c>
+      <c r="G327">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>326</v>
+      </c>
+      <c r="B328" s="1">
+        <v>44199</v>
+      </c>
+      <c r="C328">
+        <v>5</v>
+      </c>
+      <c r="D328">
+        <v>3</v>
+      </c>
+      <c r="E328">
+        <v>0</v>
+      </c>
+      <c r="F328">
+        <v>2</v>
+      </c>
+      <c r="G328">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>327</v>
+      </c>
+      <c r="B329" s="1">
+        <v>44200</v>
+      </c>
+      <c r="C329">
+        <v>6</v>
+      </c>
+      <c r="D329">
+        <v>3</v>
+      </c>
+      <c r="E329">
+        <v>1</v>
+      </c>
+      <c r="F329">
+        <v>2</v>
+      </c>
+      <c r="G329">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>328</v>
+      </c>
+      <c r="B330" s="1">
+        <v>44201</v>
+      </c>
+      <c r="C330">
+        <v>7</v>
+      </c>
+      <c r="D330">
+        <v>6</v>
+      </c>
+      <c r="E330">
+        <v>0</v>
+      </c>
+      <c r="F330">
+        <v>1</v>
+      </c>
+      <c r="G330">
         <v>6</v>
       </c>
     </row>

--- a/data/fiona_all.xlsx
+++ b/data/fiona_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jimwright/Desktop/Fiona/fiona_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE0EC78-DE2C-8B4F-8F92-BA2EC744E3E2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6EE987-3DAF-8C48-AD37-FD93EBA1EBB0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1240" windowWidth="27240" windowHeight="15420" xr2:uid="{F9AD2A1A-C27B-BB4F-9826-ADAF31727007}"/>
   </bookViews>
@@ -406,10 +406,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4658B3B-DC57-6045-89AB-853788F033ED}">
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:G366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
-      <selection activeCell="H330" sqref="H330"/>
+    <sheetView tabSelected="1" topLeftCell="A342" workbookViewId="0">
+      <selection activeCell="G365" sqref="G365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8004,6 +8004,834 @@
         <v>6</v>
       </c>
     </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>329</v>
+      </c>
+      <c r="B331" s="1">
+        <v>44202</v>
+      </c>
+      <c r="C331">
+        <v>7</v>
+      </c>
+      <c r="D331">
+        <v>5</v>
+      </c>
+      <c r="E331">
+        <v>0</v>
+      </c>
+      <c r="F331">
+        <v>2</v>
+      </c>
+      <c r="G331">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>330</v>
+      </c>
+      <c r="B332" s="1">
+        <v>44203</v>
+      </c>
+      <c r="C332">
+        <v>7</v>
+      </c>
+      <c r="D332">
+        <v>3</v>
+      </c>
+      <c r="E332">
+        <v>0</v>
+      </c>
+      <c r="F332">
+        <v>4</v>
+      </c>
+      <c r="G332">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>321</v>
+      </c>
+      <c r="B333" s="1">
+        <v>44204</v>
+      </c>
+      <c r="C333">
+        <v>7</v>
+      </c>
+      <c r="D333">
+        <v>5</v>
+      </c>
+      <c r="E333">
+        <v>1</v>
+      </c>
+      <c r="F333">
+        <v>1</v>
+      </c>
+      <c r="G333">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>322</v>
+      </c>
+      <c r="B334" s="1">
+        <v>44205</v>
+      </c>
+      <c r="C334">
+        <v>7</v>
+      </c>
+      <c r="D334">
+        <v>5</v>
+      </c>
+      <c r="E334">
+        <v>0</v>
+      </c>
+      <c r="F334">
+        <v>2</v>
+      </c>
+      <c r="G334">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>323</v>
+      </c>
+      <c r="B335" s="1">
+        <v>44206</v>
+      </c>
+      <c r="C335">
+        <v>8</v>
+      </c>
+      <c r="D335">
+        <v>7</v>
+      </c>
+      <c r="E335">
+        <v>1</v>
+      </c>
+      <c r="F335">
+        <v>0</v>
+      </c>
+      <c r="G335">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>324</v>
+      </c>
+      <c r="B336" s="1">
+        <v>44207</v>
+      </c>
+      <c r="C336">
+        <v>6</v>
+      </c>
+      <c r="D336">
+        <v>4</v>
+      </c>
+      <c r="E336">
+        <v>0</v>
+      </c>
+      <c r="F336">
+        <v>2</v>
+      </c>
+      <c r="G336">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>325</v>
+      </c>
+      <c r="B337" s="1">
+        <v>44208</v>
+      </c>
+      <c r="C337">
+        <v>8</v>
+      </c>
+      <c r="D337">
+        <v>8</v>
+      </c>
+      <c r="E337">
+        <v>0</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+      <c r="G337">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>326</v>
+      </c>
+      <c r="B338" s="1">
+        <v>44209</v>
+      </c>
+      <c r="C338">
+        <v>7</v>
+      </c>
+      <c r="D338">
+        <v>6</v>
+      </c>
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>0</v>
+      </c>
+      <c r="G338">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>327</v>
+      </c>
+      <c r="B339" s="1">
+        <v>44210</v>
+      </c>
+      <c r="C339">
+        <v>7</v>
+      </c>
+      <c r="D339">
+        <v>4</v>
+      </c>
+      <c r="E339">
+        <v>0</v>
+      </c>
+      <c r="F339">
+        <v>3</v>
+      </c>
+      <c r="G339">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>328</v>
+      </c>
+      <c r="B340" s="1">
+        <v>44211</v>
+      </c>
+      <c r="C340">
+        <v>6</v>
+      </c>
+      <c r="D340">
+        <v>4</v>
+      </c>
+      <c r="E340">
+        <v>1</v>
+      </c>
+      <c r="F340">
+        <v>1</v>
+      </c>
+      <c r="G340">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>329</v>
+      </c>
+      <c r="B341" s="1">
+        <v>44212</v>
+      </c>
+      <c r="C341">
+        <v>7</v>
+      </c>
+      <c r="D341">
+        <v>4</v>
+      </c>
+      <c r="E341">
+        <v>3</v>
+      </c>
+      <c r="F341">
+        <v>0</v>
+      </c>
+      <c r="G341">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>330</v>
+      </c>
+      <c r="B342" s="1">
+        <v>44213</v>
+      </c>
+      <c r="C342">
+        <v>5</v>
+      </c>
+      <c r="D342">
+        <v>3</v>
+      </c>
+      <c r="E342">
+        <v>0</v>
+      </c>
+      <c r="F342">
+        <v>2</v>
+      </c>
+      <c r="G342">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>331</v>
+      </c>
+      <c r="B343" s="1">
+        <v>44214</v>
+      </c>
+      <c r="C343">
+        <v>5</v>
+      </c>
+      <c r="D343">
+        <v>3</v>
+      </c>
+      <c r="E343">
+        <v>0</v>
+      </c>
+      <c r="F343">
+        <v>2</v>
+      </c>
+      <c r="G343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>332</v>
+      </c>
+      <c r="B344" s="1">
+        <v>44215</v>
+      </c>
+      <c r="C344">
+        <v>6</v>
+      </c>
+      <c r="D344">
+        <v>5</v>
+      </c>
+      <c r="E344">
+        <v>0</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>333</v>
+      </c>
+      <c r="B345" s="1">
+        <v>44216</v>
+      </c>
+      <c r="C345">
+        <v>7</v>
+      </c>
+      <c r="D345">
+        <v>5</v>
+      </c>
+      <c r="E345">
+        <v>0</v>
+      </c>
+      <c r="F345">
+        <v>2</v>
+      </c>
+      <c r="G345">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>334</v>
+      </c>
+      <c r="B346" s="1">
+        <v>44217</v>
+      </c>
+      <c r="C346">
+        <v>6</v>
+      </c>
+      <c r="D346">
+        <v>5</v>
+      </c>
+      <c r="E346">
+        <v>0</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="G346">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>335</v>
+      </c>
+      <c r="B347" s="1">
+        <v>44218</v>
+      </c>
+      <c r="C347">
+        <v>6</v>
+      </c>
+      <c r="D347">
+        <v>4</v>
+      </c>
+      <c r="E347">
+        <v>0</v>
+      </c>
+      <c r="F347">
+        <v>2</v>
+      </c>
+      <c r="G347">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>336</v>
+      </c>
+      <c r="B348" s="1">
+        <v>44219</v>
+      </c>
+      <c r="C348">
+        <v>6</v>
+      </c>
+      <c r="D348">
+        <v>4</v>
+      </c>
+      <c r="E348">
+        <v>0</v>
+      </c>
+      <c r="F348">
+        <v>2</v>
+      </c>
+      <c r="G348">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>337</v>
+      </c>
+      <c r="B349" s="1">
+        <v>44220</v>
+      </c>
+      <c r="C349">
+        <v>7</v>
+      </c>
+      <c r="D349">
+        <v>5</v>
+      </c>
+      <c r="E349">
+        <v>0</v>
+      </c>
+      <c r="F349">
+        <v>2</v>
+      </c>
+      <c r="G349">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>338</v>
+      </c>
+      <c r="B350" s="1">
+        <v>44221</v>
+      </c>
+      <c r="C350">
+        <v>6</v>
+      </c>
+      <c r="D350">
+        <v>6</v>
+      </c>
+      <c r="E350">
+        <v>0</v>
+      </c>
+      <c r="F350">
+        <v>0</v>
+      </c>
+      <c r="G350">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>339</v>
+      </c>
+      <c r="B351" s="1">
+        <v>44222</v>
+      </c>
+      <c r="C351">
+        <v>7</v>
+      </c>
+      <c r="D351">
+        <v>5</v>
+      </c>
+      <c r="E351">
+        <v>1</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>340</v>
+      </c>
+      <c r="B352" s="1">
+        <v>44223</v>
+      </c>
+      <c r="C352">
+        <v>8</v>
+      </c>
+      <c r="D352">
+        <v>7</v>
+      </c>
+      <c r="E352">
+        <v>0</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>341</v>
+      </c>
+      <c r="B353" s="1">
+        <v>44224</v>
+      </c>
+      <c r="C353">
+        <v>9</v>
+      </c>
+      <c r="D353">
+        <v>8</v>
+      </c>
+      <c r="E353">
+        <v>0</v>
+      </c>
+      <c r="F353">
+        <v>1</v>
+      </c>
+      <c r="G353">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>342</v>
+      </c>
+      <c r="B354" s="1">
+        <v>44225</v>
+      </c>
+      <c r="C354">
+        <v>7</v>
+      </c>
+      <c r="D354">
+        <v>2</v>
+      </c>
+      <c r="E354">
+        <v>0</v>
+      </c>
+      <c r="F354">
+        <v>5</v>
+      </c>
+      <c r="G354">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>343</v>
+      </c>
+      <c r="B355" s="1">
+        <v>44226</v>
+      </c>
+      <c r="C355">
+        <v>5</v>
+      </c>
+      <c r="D355">
+        <v>3</v>
+      </c>
+      <c r="E355">
+        <v>0</v>
+      </c>
+      <c r="F355">
+        <v>2</v>
+      </c>
+      <c r="G355">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>344</v>
+      </c>
+      <c r="B356" s="1">
+        <v>44227</v>
+      </c>
+      <c r="C356">
+        <v>6</v>
+      </c>
+      <c r="D356">
+        <v>1</v>
+      </c>
+      <c r="E356">
+        <v>1</v>
+      </c>
+      <c r="F356">
+        <v>4</v>
+      </c>
+      <c r="G356">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>345</v>
+      </c>
+      <c r="B357" s="1">
+        <v>44228</v>
+      </c>
+      <c r="C357">
+        <v>7</v>
+      </c>
+      <c r="D357">
+        <v>4</v>
+      </c>
+      <c r="E357">
+        <v>0</v>
+      </c>
+      <c r="F357">
+        <v>3</v>
+      </c>
+      <c r="G357">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>346</v>
+      </c>
+      <c r="B358" s="1">
+        <v>44229</v>
+      </c>
+      <c r="C358">
+        <v>8</v>
+      </c>
+      <c r="D358">
+        <v>6</v>
+      </c>
+      <c r="E358">
+        <v>0</v>
+      </c>
+      <c r="F358">
+        <v>2</v>
+      </c>
+      <c r="G358">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>347</v>
+      </c>
+      <c r="B359" s="1">
+        <v>44230</v>
+      </c>
+      <c r="C359">
+        <v>8</v>
+      </c>
+      <c r="D359">
+        <v>6</v>
+      </c>
+      <c r="E359">
+        <v>0</v>
+      </c>
+      <c r="F359">
+        <v>2</v>
+      </c>
+      <c r="G359">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>348</v>
+      </c>
+      <c r="B360" s="1">
+        <v>44231</v>
+      </c>
+      <c r="C360">
+        <v>6</v>
+      </c>
+      <c r="D360">
+        <v>4</v>
+      </c>
+      <c r="E360">
+        <v>0</v>
+      </c>
+      <c r="F360">
+        <v>2</v>
+      </c>
+      <c r="G360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>349</v>
+      </c>
+      <c r="B361" s="1">
+        <v>44232</v>
+      </c>
+      <c r="C361">
+        <v>6</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+      <c r="E361">
+        <v>0</v>
+      </c>
+      <c r="F361">
+        <v>4</v>
+      </c>
+      <c r="G361">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>350</v>
+      </c>
+      <c r="B362" s="1">
+        <v>44233</v>
+      </c>
+      <c r="C362">
+        <v>7</v>
+      </c>
+      <c r="D362">
+        <v>5</v>
+      </c>
+      <c r="E362">
+        <v>1</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>351</v>
+      </c>
+      <c r="B363" s="1">
+        <v>44234</v>
+      </c>
+      <c r="C363">
+        <v>6</v>
+      </c>
+      <c r="D363">
+        <v>3</v>
+      </c>
+      <c r="E363">
+        <v>0</v>
+      </c>
+      <c r="F363">
+        <v>3</v>
+      </c>
+      <c r="G363">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>352</v>
+      </c>
+      <c r="B364" s="1">
+        <v>44235</v>
+      </c>
+      <c r="C364">
+        <v>7</v>
+      </c>
+      <c r="D364">
+        <v>4</v>
+      </c>
+      <c r="E364">
+        <v>1</v>
+      </c>
+      <c r="F364">
+        <v>2</v>
+      </c>
+      <c r="G364">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>351</v>
+      </c>
+      <c r="B365" s="1">
+        <v>44236</v>
+      </c>
+      <c r="C365">
+        <v>7</v>
+      </c>
+      <c r="D365">
+        <v>6</v>
+      </c>
+      <c r="E365">
+        <v>0</v>
+      </c>
+      <c r="F365">
+        <v>1</v>
+      </c>
+      <c r="G365">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>353</v>
+      </c>
+      <c r="B366" s="1">
+        <v>44237</v>
+      </c>
+      <c r="C366">
+        <v>5</v>
+      </c>
+      <c r="D366">
+        <v>3</v>
+      </c>
+      <c r="E366">
+        <v>0</v>
+      </c>
+      <c r="F366">
+        <v>2</v>
+      </c>
+      <c r="G366">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
